--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H2">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I2">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J2">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>75.80045639961044</v>
+        <v>34.57719624945066</v>
       </c>
       <c r="R2">
-        <v>682.2041075964941</v>
+        <v>311.194766245056</v>
       </c>
       <c r="S2">
-        <v>0.1772152651218867</v>
+        <v>0.06854276680870179</v>
       </c>
       <c r="T2">
-        <v>0.1772152651218868</v>
+        <v>0.06854276680870179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H3">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I3">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J3">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>0.1440797910826666</v>
+        <v>0.3486259439359999</v>
       </c>
       <c r="R3">
-        <v>1.296718119744</v>
+        <v>3.137633495423999</v>
       </c>
       <c r="S3">
-        <v>0.0003368467630433956</v>
+        <v>0.0006910851477452694</v>
       </c>
       <c r="T3">
-        <v>0.0003368467630433957</v>
+        <v>0.0006910851477452695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H4">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I4">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J4">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>16.65152193106333</v>
+        <v>53.89553098255332</v>
       </c>
       <c r="R4">
-        <v>149.86369737957</v>
+        <v>485.0597788429799</v>
       </c>
       <c r="S4">
-        <v>0.03892989585893133</v>
+        <v>0.1068377200255792</v>
       </c>
       <c r="T4">
-        <v>0.03892989585893133</v>
+        <v>0.1068377200255792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H5">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I5">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J5">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>105.3487011468644</v>
+        <v>237.7592588455706</v>
       </c>
       <c r="R5">
-        <v>948.1383103217801</v>
+        <v>2139.833329610135</v>
       </c>
       <c r="S5">
-        <v>0.2462966437242183</v>
+        <v>0.471312865221703</v>
       </c>
       <c r="T5">
-        <v>0.2462966437242183</v>
+        <v>0.4713128652217031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H6">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I6">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J6">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>87.99373799364324</v>
+        <v>18.83341151678044</v>
       </c>
       <c r="R6">
-        <v>791.9436419427891</v>
+        <v>169.500703651024</v>
       </c>
       <c r="S6">
-        <v>0.2057221598429513</v>
+        <v>0.03733368444607506</v>
       </c>
       <c r="T6">
-        <v>0.2057221598429513</v>
+        <v>0.03733368444607506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H7">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I7">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J7">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
-        <v>0.1672565046293333</v>
+        <v>0.1898886138773333</v>
       </c>
       <c r="R7">
-        <v>1.505308541664</v>
+        <v>1.708997524896</v>
       </c>
       <c r="S7">
-        <v>0.0003910320230129869</v>
+        <v>0.0003764183448167361</v>
       </c>
       <c r="T7">
-        <v>0.0003910320230129869</v>
+        <v>0.0003764183448167362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H8">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I8">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J8">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>19.33009018142166</v>
+        <v>29.35566859114389</v>
       </c>
       <c r="R8">
-        <v>173.970811632795</v>
+        <v>264.201017320295</v>
       </c>
       <c r="S8">
-        <v>0.04519216926968562</v>
+        <v>0.05819207353425235</v>
       </c>
       <c r="T8">
-        <v>0.04519216926968562</v>
+        <v>0.05819207353425235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H9">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I9">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J9">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>122.2951212564922</v>
+        <v>129.5020548068438</v>
       </c>
       <c r="R9">
-        <v>1100.65609130843</v>
+        <v>1165.518493261594</v>
       </c>
       <c r="S9">
-        <v>0.2859159873962703</v>
+        <v>0.2567133864711265</v>
       </c>
       <c r="T9">
-        <v>0.2859159873962703</v>
+        <v>0.2567133864711265</v>
       </c>
     </row>
   </sheetData>
